--- a/pred_ohlcv/54_21/2019-11-01 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 STRAT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>19611.3131</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>19522.553</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>19406.3513</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>19406.3513</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>19406.3513</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>19406.3513</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>19414.5879</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>19414.5879</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>19414.5879</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>19414.5879</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>18754.0208</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>18754.0208</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -834,7 +834,7 @@
         <v>21879.4389</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-30631.5316</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-30631.5316</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-39126.1024</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-38280.76949999999</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-46892.29549999999</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-46892.29549999999</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-47476.29549999999</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-47475.29549999999</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-47525.29549999999</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-47525.29549999999</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-47524.29549999999</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-47885.61949999999</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-48563.38479999999</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-60382.82369999999</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-57315.49969999999</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-57417.72159999999</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-56646.59108769999</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-56646.59108769999</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-56740.42938769999</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-56740.42938769999</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-56378.3293877</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-56378.3293877</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-56377.3293877</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-56490.4824877</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-56314.8628877</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-59014.8375877</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-61260.2267877</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-61259.2267877</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-63529.2612877</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-63276.6163877</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-01 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 STRAT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>19611.3131</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>19522.553</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>19406.3513</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>19406.3513</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -678,7 +678,7 @@
         <v>19414.5879</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-30631.5316</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-35468.7992</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-34866.0497</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-34866.0497</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-34866.0497</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-34866.0497</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-33814.5429</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-33813.5429</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-39126.1024</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-38280.76949999999</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-46102.23599999999</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-46152.23599999999</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-46152.23599999999</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-46151.23599999999</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-46892.29549999999</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-46892.29549999999</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-47476.29549999999</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-47475.29549999999</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-47525.29549999999</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-47525.29549999999</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-47524.29549999999</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-47885.61949999999</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-48563.38479999999</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-48563.38479999999</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-60382.82369999999</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-57315.49969999999</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-57417.72159999999</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-56646.59108769999</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-56646.59108769999</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-56740.42938769999</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-56740.42938769999</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-56378.3293877</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-56378.3293877</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-56377.3293877</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-56490.4824877</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-56314.8628877</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-57200.9996877</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-59014.8375877</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-59015.8375877</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-61260.2267877</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-61259.2267877</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-61444.0784877</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-61444.0784877</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-63529.2612877</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-63276.6163877</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
